--- a/docs/CareConnect-ProblemHeader-Condition-1.xlsx
+++ b/docs/CareConnect-ProblemHeader-Condition-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2762" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2762" uniqueCount="460">
   <si>
     <t>Path</t>
   </si>
@@ -1042,6 +1042,9 @@
   </si>
   <si>
     <t>The SNOMED CT Description ID for the display</t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display.</t>
   </si>
   <si>
     <t>Condition.code.coding.system</t>
@@ -6828,7 +6831,7 @@
         <v>323</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>99</v>
+        <v>324</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6900,7 +6903,7 @@
         <v>41</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>41</v>
@@ -6911,7 +6914,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6953,7 +6956,7 @@
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>41</v>
@@ -7027,7 +7030,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7141,7 +7144,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7255,7 +7258,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7369,7 +7372,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7485,7 +7488,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7601,7 +7604,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7627,13 +7630,13 @@
         <v>154</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7662,10 +7665,10 @@
         <v>304</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>41</v>
@@ -7683,7 +7686,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7698,28 +7701,28 @@
         <v>41</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7738,17 +7741,17 @@
         <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>41</v>
@@ -7797,7 +7800,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>52</v>
@@ -7815,13 +7818,13 @@
         <v>41</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>41</v>
@@ -7829,11 +7832,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7852,16 +7855,16 @@
         <v>53</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7911,7 +7914,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7929,13 +7932,13 @@
         <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>41</v>
@@ -7943,7 +7946,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7966,16 +7969,16 @@
         <v>53</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8025,7 +8028,7 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8043,13 +8046,13 @@
         <v>41</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>41</v>
@@ -8057,7 +8060,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8080,16 +8083,16 @@
         <v>41</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8139,7 +8142,7 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8148,7 +8151,7 @@
         <v>52</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>41</v>
@@ -8160,10 +8163,10 @@
         <v>41</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>41</v>
@@ -8171,7 +8174,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8194,16 +8197,16 @@
         <v>53</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8253,7 +8256,7 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8271,13 +8274,13 @@
         <v>41</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>41</v>
@@ -8285,7 +8288,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8308,13 +8311,13 @@
         <v>53</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8365,7 +8368,7 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8383,13 +8386,13 @@
         <v>41</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>41</v>
@@ -8397,7 +8400,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8420,13 +8423,13 @@
         <v>41</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8477,7 +8480,7 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8489,7 +8492,7 @@
         <v>41</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>41</v>
@@ -8498,7 +8501,7 @@
         <v>41</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>41</v>
@@ -8509,7 +8512,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8621,7 +8624,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8735,11 +8738,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8764,7 +8767,7 @@
         <v>121</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>123</v>
@@ -8817,7 +8820,7 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8849,7 +8852,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8875,10 +8878,10 @@
         <v>154</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8908,10 +8911,10 @@
         <v>304</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>41</v>
@@ -8929,7 +8932,7 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -8938,16 +8941,16 @@
         <v>52</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>309</v>
@@ -8961,7 +8964,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8984,13 +8987,13 @@
         <v>41</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9041,7 +9044,7 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9050,7 +9053,7 @@
         <v>43</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>41</v>
@@ -9062,7 +9065,7 @@
         <v>41</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>41</v>
@@ -9073,7 +9076,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9096,16 +9099,16 @@
         <v>41</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9155,7 +9158,7 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9167,7 +9170,7 @@
         <v>41</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>41</v>
@@ -9176,7 +9179,7 @@
         <v>41</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>41</v>
@@ -9187,7 +9190,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9299,7 +9302,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9413,11 +9416,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9442,7 +9445,7 @@
         <v>121</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>123</v>
@@ -9495,7 +9498,7 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9527,7 +9530,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9553,10 +9556,10 @@
         <v>154</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9586,10 +9589,10 @@
         <v>304</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>41</v>
@@ -9607,7 +9610,7 @@
         <v>41</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9616,7 +9619,7 @@
         <v>43</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>41</v>
@@ -9628,10 +9631,10 @@
         <v>41</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>41</v>
@@ -9639,7 +9642,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9662,13 +9665,13 @@
         <v>53</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9719,7 +9722,7 @@
         <v>41</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -9728,7 +9731,7 @@
         <v>43</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>41</v>
@@ -9740,10 +9743,10 @@
         <v>41</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>41</v>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9774,13 +9777,13 @@
         <v>41</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9831,7 +9834,7 @@
         <v>41</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -9849,10 +9852,10 @@
         <v>41</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>41</v>
@@ -9863,7 +9866,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9975,7 +9978,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10089,7 +10092,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10112,13 +10115,13 @@
         <v>53</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10169,7 +10172,7 @@
         <v>41</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
@@ -10190,7 +10193,7 @@
         <v>95</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>41</v>
@@ -10201,7 +10204,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10224,13 +10227,13 @@
         <v>53</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10281,7 +10284,7 @@
         <v>41</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10302,7 +10305,7 @@
         <v>95</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>41</v>
@@ -10313,7 +10316,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10339,10 +10342,10 @@
         <v>133</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10393,7 +10396,7 @@
         <v>41</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>52</v>
@@ -10414,7 +10417,7 @@
         <v>95</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>41</v>

--- a/docs/CareConnect-ProblemHeader-Condition-1.xlsx
+++ b/docs/CareConnect-ProblemHeader-Condition-1.xlsx
@@ -1626,15 +1626,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.62890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="74.31640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1647,22 +1647,22 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="66.37109375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="69.8515625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="65.78515625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="65.78125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="213.0390625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="22.03125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="37.70703125" customWidth="true" bestFit="true"/>

--- a/docs/CareConnect-ProblemHeader-Condition-1.xlsx
+++ b/docs/CareConnect-ProblemHeader-Condition-1.xlsx
@@ -1626,15 +1626,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.62890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="74.31640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1647,22 +1647,22 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="66.37109375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="69.8515625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="65.78125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="65.78515625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="213.0390625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="22.03125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="37.70703125" customWidth="true" bestFit="true"/>

--- a/docs/CareConnect-ProblemHeader-Condition-1.xlsx
+++ b/docs/CareConnect-ProblemHeader-Condition-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2762" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2762" uniqueCount="462">
   <si>
     <t>Path</t>
   </si>
@@ -388,6 +388,12 @@
   <si>
     <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-ProblemSignificance-1}
 </t>
+  </si>
+  <si>
+    <t>An extension to record the significance of the problem header condition</t>
+  </si>
+  <si>
+    <t>An extension to record the significance of the problem header condition.</t>
   </si>
   <si>
     <t>relatedClinicalContent</t>
@@ -2937,7 +2943,7 @@
         <v>42</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>41</v>
@@ -2952,10 +2958,10 @@
         <v>114</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3015,10 +3021,10 @@
         <v>43</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>41</v>
@@ -3041,7 +3047,7 @@
         <v>96</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>41</v>
@@ -3063,13 +3069,13 @@
         <v>41</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3152,11 +3158,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3178,13 +3184,13 @@
         <v>97</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3234,7 +3240,7 @@
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -3266,7 +3272,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3289,17 +3295,17 @@
         <v>53</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>41</v>
@@ -3348,7 +3354,7 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -3369,10 +3375,10 @@
         <v>41</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>41</v>
@@ -3380,7 +3386,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3403,13 +3409,13 @@
         <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3460,7 +3466,7 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3481,7 +3487,7 @@
         <v>41</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>41</v>
@@ -3492,11 +3498,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3518,13 +3524,13 @@
         <v>97</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3565,7 +3571,7 @@
         <v>100</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>41</v>
@@ -3574,7 +3580,7 @@
         <v>101</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3595,7 +3601,7 @@
         <v>41</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>41</v>
@@ -3606,7 +3612,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3632,16 +3638,16 @@
         <v>71</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>41</v>
@@ -3666,13 +3672,13 @@
         <v>41</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>41</v>
@@ -3690,7 +3696,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3711,7 +3717,7 @@
         <v>95</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>41</v>
@@ -3722,7 +3728,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3745,19 +3751,19 @@
         <v>53</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>41</v>
@@ -3785,10 +3791,10 @@
         <v>75</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>41</v>
@@ -3806,7 +3812,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3824,10 +3830,10 @@
         <v>41</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>41</v>
@@ -3838,7 +3844,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3864,14 +3870,14 @@
         <v>65</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>41</v>
@@ -3884,7 +3890,7 @@
         <v>41</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>41</v>
@@ -3920,7 +3926,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3938,10 +3944,10 @@
         <v>41</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>41</v>
@@ -3952,7 +3958,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3975,16 +3981,16 @@
         <v>53</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3998,7 +4004,7 @@
         <v>41</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>41</v>
@@ -4034,7 +4040,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -4052,10 +4058,10 @@
         <v>41</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>41</v>
@@ -4066,7 +4072,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4089,13 +4095,13 @@
         <v>53</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4146,7 +4152,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -4164,10 +4170,10 @@
         <v>41</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>41</v>
@@ -4178,7 +4184,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4201,16 +4207,16 @@
         <v>53</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4260,7 +4266,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -4278,10 +4284,10 @@
         <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>41</v>
@@ -4292,7 +4298,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4318,13 +4324,13 @@
         <v>71</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4350,13 +4356,13 @@
         <v>41</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>41</v>
@@ -4374,7 +4380,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4383,22 +4389,22 @@
         <v>52</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>41</v>
@@ -4406,7 +4412,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4432,17 +4438,17 @@
         <v>71</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
@@ -4464,13 +4470,13 @@
         <v>41</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>41</v>
@@ -4488,7 +4494,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4497,30 +4503,30 @@
         <v>52</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4543,16 +4549,16 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4582,7 +4588,7 @@
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>41</v>
@@ -4600,7 +4606,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4615,16 +4621,16 @@
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>41</v>
@@ -4632,7 +4638,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4655,13 +4661,13 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4712,7 +4718,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4733,7 +4739,7 @@
         <v>41</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>41</v>
@@ -4744,11 +4750,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4770,13 +4776,13 @@
         <v>97</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4817,7 +4823,7 @@
         <v>100</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>41</v>
@@ -4826,7 +4832,7 @@
         <v>101</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4847,7 +4853,7 @@
         <v>41</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>41</v>
@@ -4858,7 +4864,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4881,19 +4887,19 @@
         <v>53</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>41</v>
@@ -4942,7 +4948,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4960,10 +4966,10 @@
         <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>41</v>
@@ -4974,7 +4980,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4997,13 +5003,13 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5054,7 +5060,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5075,7 +5081,7 @@
         <v>41</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>41</v>
@@ -5086,11 +5092,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5112,13 +5118,13 @@
         <v>97</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5159,7 +5165,7 @@
         <v>100</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>41</v>
@@ -5168,7 +5174,7 @@
         <v>101</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5189,7 +5195,7 @@
         <v>41</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>41</v>
@@ -5200,7 +5206,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5226,23 +5232,23 @@
         <v>65</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>41</v>
@@ -5284,7 +5290,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5302,10 +5308,10 @@
         <v>41</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>41</v>
@@ -5316,7 +5322,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5339,16 +5345,16 @@
         <v>53</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5398,7 +5404,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5416,10 +5422,10 @@
         <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>41</v>
@@ -5430,7 +5436,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5456,21 +5462,21 @@
         <v>71</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>41</v>
@@ -5512,7 +5518,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5530,10 +5536,10 @@
         <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>41</v>
@@ -5544,7 +5550,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5567,24 +5573,24 @@
         <v>53</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>41</v>
@@ -5626,7 +5632,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5644,10 +5650,10 @@
         <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>41</v>
@@ -5658,7 +5664,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5681,19 +5687,19 @@
         <v>53</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>41</v>
@@ -5742,7 +5748,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5760,10 +5766,10 @@
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>41</v>
@@ -5774,7 +5780,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5797,19 +5803,19 @@
         <v>53</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>41</v>
@@ -5858,7 +5864,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5876,10 +5882,10 @@
         <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>41</v>
@@ -5890,7 +5896,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5913,16 +5919,16 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5948,32 +5954,32 @@
         <v>41</v>
       </c>
       <c r="W38" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="X38" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="X38" t="s" s="2">
+      <c r="Y38" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE38" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>288</v>
-      </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
       </c>
@@ -5987,28 +5993,28 @@
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6027,17 +6033,17 @@
         <v>53</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>41</v>
@@ -6062,13 +6068,13 @@
         <v>41</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>41</v>
@@ -6086,7 +6092,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -6101,24 +6107,24 @@
         <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6141,13 +6147,13 @@
         <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6198,7 +6204,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6219,7 +6225,7 @@
         <v>41</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>41</v>
@@ -6230,11 +6236,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6256,13 +6262,13 @@
         <v>97</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6303,7 +6309,7 @@
         <v>100</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>41</v>
@@ -6312,7 +6318,7 @@
         <v>101</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6333,7 +6339,7 @@
         <v>41</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>41</v>
@@ -6344,7 +6350,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6367,19 +6373,19 @@
         <v>53</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>41</v>
@@ -6416,7 +6422,7 @@
         <v>41</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AB42" s="2"/>
       <c r="AC42" t="s" s="2">
@@ -6426,7 +6432,7 @@
         <v>101</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6444,10 +6450,10 @@
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>41</v>
@@ -6458,10 +6464,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>41</v>
@@ -6483,19 +6489,19 @@
         <v>53</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>41</v>
@@ -6520,13 +6526,13 @@
         <v>41</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>41</v>
@@ -6544,7 +6550,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6562,10 +6568,10 @@
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>41</v>
@@ -6576,7 +6582,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6599,13 +6605,13 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6656,7 +6662,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6677,7 +6683,7 @@
         <v>41</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>41</v>
@@ -6688,7 +6694,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6759,7 +6765,7 @@
         <v>100</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>41</v>
@@ -6768,7 +6774,7 @@
         <v>101</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6800,10 +6806,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>41</v>
@@ -6825,13 +6831,13 @@
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6882,7 +6888,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6914,7 +6920,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6940,23 +6946,23 @@
         <v>65</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>41</v>
@@ -6998,7 +7004,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7016,10 +7022,10 @@
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>41</v>
@@ -7030,7 +7036,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7053,16 +7059,16 @@
         <v>53</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7112,7 +7118,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7130,10 +7136,10 @@
         <v>41</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>41</v>
@@ -7144,7 +7150,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7170,14 +7176,14 @@
         <v>71</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>41</v>
@@ -7226,7 +7232,7 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7244,10 +7250,10 @@
         <v>41</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>41</v>
@@ -7258,7 +7264,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7281,17 +7287,17 @@
         <v>53</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>41</v>
@@ -7340,7 +7346,7 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7358,10 +7364,10 @@
         <v>41</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>41</v>
@@ -7372,7 +7378,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7395,19 +7401,19 @@
         <v>53</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>41</v>
@@ -7456,7 +7462,7 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7474,10 +7480,10 @@
         <v>41</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>41</v>
@@ -7488,7 +7494,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7511,19 +7517,19 @@
         <v>53</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>41</v>
@@ -7572,7 +7578,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7590,10 +7596,10 @@
         <v>41</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>41</v>
@@ -7604,7 +7610,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7627,16 +7633,16 @@
         <v>53</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7662,13 +7668,13 @@
         <v>41</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>41</v>
@@ -7686,7 +7692,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7701,28 +7707,28 @@
         <v>41</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7741,17 +7747,17 @@
         <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>41</v>
@@ -7800,7 +7806,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>52</v>
@@ -7818,13 +7824,13 @@
         <v>41</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>41</v>
@@ -7832,11 +7838,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7855,16 +7861,16 @@
         <v>53</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7914,7 +7920,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7932,13 +7938,13 @@
         <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>41</v>
@@ -7946,7 +7952,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7969,16 +7975,16 @@
         <v>53</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8028,7 +8034,7 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8046,13 +8052,13 @@
         <v>41</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>41</v>
@@ -8060,7 +8066,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8083,16 +8089,16 @@
         <v>41</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8142,7 +8148,7 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8151,7 +8157,7 @@
         <v>52</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>41</v>
@@ -8163,10 +8169,10 @@
         <v>41</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>41</v>
@@ -8174,7 +8180,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8197,16 +8203,16 @@
         <v>53</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8256,7 +8262,7 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8274,13 +8280,13 @@
         <v>41</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>41</v>
@@ -8288,7 +8294,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8311,13 +8317,13 @@
         <v>53</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8368,7 +8374,7 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8386,13 +8392,13 @@
         <v>41</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>41</v>
@@ -8400,7 +8406,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8423,13 +8429,13 @@
         <v>41</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8480,7 +8486,7 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8492,7 +8498,7 @@
         <v>41</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>41</v>
@@ -8501,7 +8507,7 @@
         <v>41</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>41</v>
@@ -8512,7 +8518,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8535,13 +8541,13 @@
         <v>41</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8592,7 +8598,7 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8613,7 +8619,7 @@
         <v>41</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>41</v>
@@ -8624,11 +8630,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8650,13 +8656,13 @@
         <v>97</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8706,7 +8712,7 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8727,7 +8733,7 @@
         <v>41</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>41</v>
@@ -8738,11 +8744,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8764,13 +8770,13 @@
         <v>97</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8820,7 +8826,7 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8852,7 +8858,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8875,13 +8881,13 @@
         <v>41</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8908,13 +8914,13 @@
         <v>41</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>41</v>
@@ -8932,7 +8938,7 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -8941,19 +8947,19 @@
         <v>52</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>41</v>
@@ -8964,7 +8970,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8987,13 +8993,13 @@
         <v>41</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9044,7 +9050,7 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9053,7 +9059,7 @@
         <v>43</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>41</v>
@@ -9065,7 +9071,7 @@
         <v>41</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>41</v>
@@ -9076,7 +9082,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9099,16 +9105,16 @@
         <v>41</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9158,7 +9164,7 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9170,7 +9176,7 @@
         <v>41</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>41</v>
@@ -9179,7 +9185,7 @@
         <v>41</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>41</v>
@@ -9190,7 +9196,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9213,13 +9219,13 @@
         <v>41</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9270,7 +9276,7 @@
         <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9291,7 +9297,7 @@
         <v>41</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>41</v>
@@ -9302,11 +9308,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9328,13 +9334,13 @@
         <v>97</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9384,7 +9390,7 @@
         <v>41</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9405,7 +9411,7 @@
         <v>41</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>41</v>
@@ -9416,11 +9422,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9442,13 +9448,13 @@
         <v>97</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9498,7 +9504,7 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9530,7 +9536,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9553,13 +9559,13 @@
         <v>53</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9586,13 +9592,13 @@
         <v>41</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>41</v>
@@ -9610,7 +9616,7 @@
         <v>41</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9619,22 +9625,22 @@
         <v>43</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>41</v>
@@ -9642,7 +9648,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9665,13 +9671,13 @@
         <v>53</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9722,7 +9728,7 @@
         <v>41</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -9731,7 +9737,7 @@
         <v>43</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>41</v>
@@ -9743,10 +9749,10 @@
         <v>41</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>41</v>
@@ -9754,7 +9760,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9777,13 +9783,13 @@
         <v>41</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9834,7 +9840,7 @@
         <v>41</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -9852,10 +9858,10 @@
         <v>41</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>41</v>
@@ -9866,7 +9872,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9889,13 +9895,13 @@
         <v>41</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9946,7 +9952,7 @@
         <v>41</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
@@ -9967,7 +9973,7 @@
         <v>41</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>41</v>
@@ -9978,11 +9984,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10004,13 +10010,13 @@
         <v>97</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10051,7 +10057,7 @@
         <v>100</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>41</v>
@@ -10060,7 +10066,7 @@
         <v>101</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10081,7 +10087,7 @@
         <v>41</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>41</v>
@@ -10092,7 +10098,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10115,13 +10121,13 @@
         <v>53</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10172,7 +10178,7 @@
         <v>41</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
@@ -10193,7 +10199,7 @@
         <v>95</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>41</v>
@@ -10204,7 +10210,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10227,13 +10233,13 @@
         <v>53</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10284,7 +10290,7 @@
         <v>41</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10305,7 +10311,7 @@
         <v>95</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>41</v>
@@ -10316,7 +10322,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10339,13 +10345,13 @@
         <v>41</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10396,7 +10402,7 @@
         <v>41</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>52</v>
@@ -10417,7 +10423,7 @@
         <v>95</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>41</v>

--- a/docs/CareConnect-ProblemHeader-Condition-1.xlsx
+++ b/docs/CareConnect-ProblemHeader-Condition-1.xlsx
@@ -1632,15 +1632,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.62890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="74.31640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1653,22 +1653,22 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="66.37109375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="69.8515625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="65.78125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="65.78515625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="213.0390625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="22.03125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="37.70703125" customWidth="true" bestFit="true"/>

--- a/docs/CareConnect-ProblemHeader-Condition-1.xlsx
+++ b/docs/CareConnect-ProblemHeader-Condition-1.xlsx
@@ -866,7 +866,7 @@
     <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Problem List Item</t>
+    <t>Problem List Item</t>
   </si>
   <si>
     <t>Coding.display</t>

--- a/docs/CareConnect-ProblemHeader-Condition-1.xlsx
+++ b/docs/CareConnect-ProblemHeader-Condition-1.xlsx
@@ -1632,15 +1632,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.62890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="74.31640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1653,22 +1653,22 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="66.37109375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="69.8515625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="65.78515625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="65.78125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="213.0390625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="22.03125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="37.70703125" customWidth="true" bestFit="true"/>
